--- a/Code/output/table/output.xlsx
+++ b/Code/output/table/output.xlsx
@@ -727,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56.1231996</v>
+        <v>56.1224404</v>
       </c>
       <c r="C8" t="n">
-        <v>47.2811166</v>
+        <v>47.2805831</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
